--- a/code/data/patients.xlsx
+++ b/code/data/patients.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="491">
   <si>
     <t>resource_type</t>
   </si>
@@ -1844,7 +1844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4108,28 +4108,28 @@
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F70" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G70" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H70" t="s">
         <v>320</v>
       </c>
       <c r="I70" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L70" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P70" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4140,25 +4140,25 @@
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G71" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H71" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L71" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P71" t="s">
         <v>487</v>
@@ -4172,25 +4172,25 @@
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F72" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G72" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H72" t="s">
         <v>319</v>
       </c>
       <c r="I72" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L72" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P72" t="s">
         <v>487</v>
@@ -4204,25 +4204,25 @@
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F73" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G73" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H73" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I73" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L73" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P73" t="s">
         <v>487</v>
@@ -4236,25 +4236,25 @@
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G74" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H74" t="s">
         <v>320</v>
       </c>
       <c r="I74" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L74" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P74" t="s">
         <v>487</v>
@@ -4268,28 +4268,28 @@
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F75" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G75" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H75" t="s">
         <v>320</v>
       </c>
       <c r="I75" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L75" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P75" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4300,28 +4300,28 @@
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H76" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I76" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P76" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4332,25 +4332,25 @@
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F77" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G77" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H77" t="s">
         <v>319</v>
       </c>
       <c r="I77" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L77" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="P77" t="s">
         <v>487</v>
@@ -4364,25 +4364,25 @@
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H78" t="s">
         <v>319</v>
       </c>
       <c r="I78" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L78" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P78" t="s">
         <v>487</v>
@@ -4396,30 +4396,62 @@
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G79" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H79" t="s">
         <v>319</v>
       </c>
       <c r="I79" t="s">
+        <v>397</v>
+      </c>
+      <c r="L79" t="s">
+        <v>485</v>
+      </c>
+      <c r="P79" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" t="s">
+        <v>171</v>
+      </c>
+      <c r="F80" t="s">
+        <v>249</v>
+      </c>
+      <c r="G80" t="s">
+        <v>318</v>
+      </c>
+      <c r="H80" t="s">
+        <v>319</v>
+      </c>
+      <c r="I80" t="s">
         <v>398</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K80" t="s">
         <v>408</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L80" t="s">
         <v>486</v>
       </c>
-      <c r="P79" t="s">
+      <c r="P80" t="s">
         <v>487</v>
       </c>
     </row>

--- a/code/data/patients.xlsx
+++ b/code/data/patients.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="495">
   <si>
     <t>resource_type</t>
   </si>
@@ -43,6 +43,9 @@
     <t>deceasedBoolean</t>
   </si>
   <si>
+    <t>multipleBirthBoolean</t>
+  </si>
+  <si>
     <t>deceasedDateTime</t>
   </si>
   <si>
@@ -298,679 +301,676 @@
     <t>4995ca99-2ab9-3b18-a56e-c33d29e53af0</t>
   </si>
   <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '8c95253e-8ee8-9ae8-6d40-021d702dc78e'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '8c95253e-8ee8-9ae8-6d40-021d702dc78e'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-86-2571'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99949530'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X67249552X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '6fa23508-960e-ff22-c3d0-0519a036543b'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '6fa23508-960e-ff22-c3d0-0519a036543b'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-77-5727'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99921904'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X44198863X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '83524678-9bff-93b7-ef89-d7f5390072ff'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '83524678-9bff-93b7-ef89-d7f5390072ff'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-44-5148'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99936370'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X60269119X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '4e343b0a-8698-b6dd-64c6-c2d2d0959e6e'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '4e343b0a-8698-b6dd-64c6-c2d2d0959e6e'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-73-1554'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99984711'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X89811793X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '6e4ac285-2a8d-a30d-5ecb-e32cb595a876'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '6e4ac285-2a8d-a30d-5ecb-e32cb595a876'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-92-6896'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99913876'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X18537023X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '1029f880-d3db-f477-9da3-f59c14ed22c6'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '1029f880-d3db-f477-9da3-f59c14ed22c6'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-73-8746'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99997924'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X22567330X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'a18edb30-e93c-8e9b-8e6a-95a651a24a36'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'a18edb30-e93c-8e9b-8e6a-95a651a24a36'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-36-3871'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99974900'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X23972026X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'f406a4e8-821b-0c9a-c8ec-09ad0f1fe9c6'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'f406a4e8-821b-0c9a-c8ec-09ad0f1fe9c6'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-55-8633'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99966809'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X77311867X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'b8c71fe0-e911-205e-19c3-b92e88e5b5a6'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'b8c71fe0-e911-205e-19c3-b92e88e5b5a6'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-57-6713'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99966092'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X54583141X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'e5b7d947-da2b-9cf4-12a0-9eb2cf735330'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'e5b7d947-da2b-9cf4-12a0-9eb2cf735330'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-64-3140'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99939912'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X9416817X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'b0478b4f-16f2-af38-d199-44db19304df2'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'b0478b4f-16f2-af38-d199-44db19304df2'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-37-5257'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99974524'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X56922751X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '0f978b87-8054-e6d3-aa03-20e101ea37c0'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '0f978b87-8054-e6d3-aa03-20e101ea37c0'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-12-1352'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99959699'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X8010852X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '64cdd7b0-d5a5-ca8a-4b03-3db12d7534be'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '64cdd7b0-d5a5-ca8a-4b03-3db12d7534be'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-43-7373'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'cced3031-d98c-d870-5dce-f0086d8c7a34'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'cced3031-d98c-d870-5dce-f0086d8c7a34'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-57-2405'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99944423'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X572225X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '7c4e1f8e-29e4-f88f-095a-aa6a9f55e6de'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '7c4e1f8e-29e4-f88f-095a-aa6a9f55e6de'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-16-7674'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99994310'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X29560634X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '91cf58f9-191c-3a49-a979-2ca64e52c369'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '91cf58f9-191c-3a49-a979-2ca64e52c369'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-65-5932'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99924979'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X3878422X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'cf3ce382-cceb-1557-89ac-b751a9e0e65d'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'cf3ce382-cceb-1557-89ac-b751a9e0e65d'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-32-7067'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99971051'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X85172174X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '1ba50d39-8105-69de-09de-c6d5358b3cb6'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '1ba50d39-8105-69de-09de-c6d5358b3cb6'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-18-8370'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99952013'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X49053901X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'b0f40536-9dc8-2ea0-0bbf-467a69f5e3ad'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'b0f40536-9dc8-2ea0-0bbf-467a69f5e3ad'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-75-7681'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99914793'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X2718076X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '6a15a792-ed41-e1f3-b942-3c2bd4a01ad6'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '6a15a792-ed41-e1f3-b942-3c2bd4a01ad6'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-41-9135'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'bdb76eef-1faf-1ed7-d1ff-553d7df26fb3'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'bdb76eef-1faf-1ed7-d1ff-553d7df26fb3'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-40-3074'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99949878'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X18021555X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '8a3247d3-a54c-43f2-2c5d-a8f5e28ff588'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '8a3247d3-a54c-43f2-2c5d-a8f5e28ff588'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-99-9746'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99960167'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X68181762X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '7b3071eb-aacb-0596-d7b5-4abcb83ac2f0'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '7b3071eb-aacb-0596-d7b5-4abcb83ac2f0'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-75-9428'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99928369'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X78500050X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'ac00ac90-9af7-5b4f-aca4-8b1b9990fc1a'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'ac00ac90-9af7-5b4f-aca4-8b1b9990fc1a'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-81-4799'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99958395'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X7797404X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '6dcdc387-88f9-758d-260c-4235ac7c269f'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '6dcdc387-88f9-758d-260c-4235ac7c269f'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-80-9210'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99966419'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X8539782X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '839e7cf9-b7d6-da6c-70bb-c151bf5c1c61'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '839e7cf9-b7d6-da6c-70bb-c151bf5c1c61'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-35-7380'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99944048'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X70094895X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'd8cb2b2b-fee1-36de-2e1e-0fda2ed1d991'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'd8cb2b2b-fee1-36de-2e1e-0fda2ed1d991'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-37-6950'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99921705'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X82162082X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'e94401de-18ad-e190-9113-ee5ff31b1439'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'e94401de-18ad-e190-9113-ee5ff31b1439'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-51-6424'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99930116'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X86841029X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'e9200276-eb25-ac87-e3bf-31de7e8d0b1e'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'e9200276-eb25-ac87-e3bf-31de7e8d0b1e'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-57-6801'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '0d55a582-07fe-a897-776c-3ab5e48cd457'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '0d55a582-07fe-a897-776c-3ab5e48cd457'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-20-9087'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99957903'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X4871961X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '0d7ad451-ac1b-dc0e-48bd-e0a8e1de4f15'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '0d7ad451-ac1b-dc0e-48bd-e0a8e1de4f15'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-82-3377'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99953286'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X57788101X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '3d496c42-21f9-8e42-aa2b-d021a1b79d46'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '3d496c42-21f9-8e42-aa2b-d021a1b79d46'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-80-9295'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99994989'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X59280082X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '09e292d4-f186-331c-ed95-c503acabc54e'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '09e292d4-f186-331c-ed95-c503acabc54e'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-50-2608'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99922965'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X55062132X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '35b42dc6-fcb1-4a74-1d90-4213afe5b285'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '35b42dc6-fcb1-4a74-1d90-4213afe5b285'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-97-2162'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '3635f0e6-d517-43f9-c4b2-61ea16a60fa3'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '3635f0e6-d517-43f9-c4b2-61ea16a60fa3'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-17-5471'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99951928'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X14472279X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '9ce2b3c9-0f19-e01b-d789-5cb0609583e6'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '9ce2b3c9-0f19-e01b-d789-5cb0609583e6'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-49-7754'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99955400'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'e7ffd26a-48e5-f10e-5565-2f4e8b09ee45'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'e7ffd26a-48e5-f10e-5565-2f4e8b09ee45'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-37-2467'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99999219'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X80707913X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'a57f2290-27ed-6117-2989-f42ef6d291ab'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'a57f2290-27ed-6117-2989-f42ef6d291ab'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-29-3899'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99954706'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X17350234X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '2d6c10cf-fade-6e45-0064-674792ff5ef1'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '2d6c10cf-fade-6e45-0064-674792ff5ef1'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-22-8355'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99990331'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X12668064X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '4cef483d-6b1b-a284-b8fd-1de7f5aba0a4'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '4cef483d-6b1b-a284-b8fd-1de7f5aba0a4'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-91-7315'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99955475'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X24146584X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '9c02362b-0a48-be5e-7296-e332e383ebd2'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '9c02362b-0a48-be5e-7296-e332e383ebd2'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-21-2186'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99938997'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X43252439X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '2a0033b8-bd24-be26-eb24-8d6d9616b74f'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '2a0033b8-bd24-be26-eb24-8d6d9616b74f'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-31-9963'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99943930'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X42066618X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'fae4f7e3-622f-290c-068f-6d03e71dd5c9'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'fae4f7e3-622f-290c-068f-6d03e71dd5c9'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-28-4426'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99919128'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X38408123X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '9ebde11e-7248-e63c-25f9-4b793c3a5065'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '9ebde11e-7248-e63c-25f9-4b793c3a5065'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-11-2493'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99942409'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X69950630X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '46b22d89-fe1a-3cf7-7ecb-b16c7390103f'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '46b22d89-fe1a-3cf7-7ecb-b16c7390103f'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-21-9079'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99968640'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X23539215X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '37905eb6-a01d-0e34-a274-27ada76d3ccc'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '37905eb6-a01d-0e34-a274-27ada76d3ccc'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-49-4483'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99997762'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X3980163X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'b0bccf43-3bf5-217c-7315-9e44d106bb6b'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'b0bccf43-3bf5-217c-7315-9e44d106bb6b'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-66-8073'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99998624'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X71072962X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'f8e9efe2-62db-29a2-46be-c72bad056ca8'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'f8e9efe2-62db-29a2-46be-c72bad056ca8'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-81-2045'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99974316'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X87064068X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '5310622a-3368-34f0-c14a-b992c71e7d59'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '5310622a-3368-34f0-c14a-b992c71e7d59'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-32-1799'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99944029'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X88280356X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '67ae02d5-002b-6bba-1854-642eba13aa0f'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '67ae02d5-002b-6bba-1854-642eba13aa0f'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-92-7273'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99961040'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X4040328X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '10bf6da8-ffa1-6913-a119-726634be754c'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '10bf6da8-ffa1-6913-a119-726634be754c'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-29-6008'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99974783'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X88476867X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '718f37a0-cb8f-fb74-03d3-c242033e7a81'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '718f37a0-cb8f-fb74-03d3-c242033e7a81'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-41-1246'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'aad9d04b-bb30-2f47-d5dd-888b3b7bd831'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'aad9d04b-bb30-2f47-d5dd-888b3b7bd831'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-15-1388'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99951244'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X47828744X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '6f1df156-8793-56a0-6df1-570bca4dcc07'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '6f1df156-8793-56a0-6df1-570bca4dcc07'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-60-4968'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '1d2875d4-f60d-df84-d3e1-12dbafa29bd4'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '1d2875d4-f60d-df84-d3e1-12dbafa29bd4'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-26-3931'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99985828'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X35885072X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '126a7e7a-958b-428b-907d-f2aa4fd7236b'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '126a7e7a-958b-428b-907d-f2aa4fd7236b'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-30-3937'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99927398'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X58766603X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'a8e9746e-f807-bbb1-bdc1-83ade842694d'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'a8e9746e-f807-bbb1-bdc1-83ade842694d'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-89-9105'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99924772'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X25953361X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '98ff843c-4be7-b0aa-cc4f-0462d049ecb8'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '98ff843c-4be7-b0aa-cc4f-0462d049ecb8'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-36-6988'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99934427'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '0ae2b985-af6e-485e-f0c5-fe0006c366e3'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '0ae2b985-af6e-485e-f0c5-fe0006c366e3'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-78-5304'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99914450'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X5091584X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '0ae69ba4-c609-45cc-f172-d55bac5df41e'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '0ae69ba4-c609-45cc-f172-d55bac5df41e'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-95-5379'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'eb3007ac-5147-73e0-b6ad-20bbe8578a08'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'eb3007ac-5147-73e0-b6ad-20bbe8578a08'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-57-1326'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'd3406315-0e5e-e5e3-da71-b3c9802bd004'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'd3406315-0e5e-e5e3-da71-b3c9802bd004'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-23-9723'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99910111'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X12454361X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '4f0dc4bc-9ada-c8dd-31dc-ffcfbe80e186'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '4f0dc4bc-9ada-c8dd-31dc-ffcfbe80e186'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-86-5875'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99935914'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X86872869X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'a5ad8c5e-69af-ffe9-4de1-6e099852ff7d'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'a5ad8c5e-69af-ffe9-4de1-6e099852ff7d'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-28-8091'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99971719'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'c7eef66d-c5b9-f4da-bf58-550a8077ded6'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'c7eef66d-c5b9-f4da-bf58-550a8077ded6'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-90-4629'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99979792'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X23458281X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'f8c09661-fcd1-eeea-d61e-478109235532'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'f8c09661-fcd1-eeea-d61e-478109235532'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-34-8784'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99977690'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X67497912X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '4878889a-9b4f-22fc-7060-ed9f5c05940c'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '4878889a-9b4f-22fc-7060-ed9f5c05940c'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-66-7470'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'aa4eae2c-733a-35f9-8869-d33a6015db23'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'aa4eae2c-733a-35f9-8869-d33a6015db23'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-70-3202'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99922758'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X15329259X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'da6120a6-4557-7db3-b44c-43c38568c119'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'da6120a6-4557-7db3-b44c-43c38568c119'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-41-1087'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99974441'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X3441471X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'ac56a3df-7399-e895-2a6e-6ae757f3f4a5'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'ac56a3df-7399-e895-2a6e-6ae757f3f4a5'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-96-3011'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99912483'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X5189437X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '4a627a30-b963-bd1c-58be-0499f24d9670'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '4a627a30-b963-bd1c-58be-0499f24d9670'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-78-9619'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99960168'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X30108696X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'c8c2969a-32d7-9694-ce15-378ae4d66413'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'c8c2969a-32d7-9694-ce15-378ae4d66413'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-16-3893'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99982710'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X27254935X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '89ba9a77-7aed-6cb8-6795-fb21f0ec237c'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '89ba9a77-7aed-6cb8-6795-fb21f0ec237c'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-31-7681'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99981576'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X54032680X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '15201e77-7e36-0667-73bc-013783e57649'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '15201e77-7e36-0667-73bc-013783e57649'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-45-5589'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99986786'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X66801116X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': 'f38fe4a9-1634-144c-0147-53c0300c1561'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': 'f38fe4a9-1634-144c-0147-53c0300c1561'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-38-3492'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99941117'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X72519883X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '686e4b2e-1f8d-7018-c335-1604a300121b'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '686e4b2e-1f8d-7018-c335-1604a300121b'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-51-1293'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99927670'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X47498032X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '37d57af4-d27f-fb97-9b5c-a1090f5a57b7'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '37d57af4-d27f-fb97-9b5c-a1090f5a57b7'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-76-6872'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99998676'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X6602431X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'https://github.com/synthetichealth/synthea', 'value': '4995ca99-2ab9-3b18-a56e-c33d29e53af0'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'MR', 'display': 'Medical Record Number'}], 'text': 'Medical Record Number'}, 'system': 'http://hospital.smarthealthit.org', 'value': '4995ca99-2ab9-3b18-a56e-c33d29e53af0'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'SS', 'display': 'Social Security Number'}], 'text': 'Social Security Number'}, 'system': 'http://hl7.org/fhir/sid/us-ssn', 'value': '999-86-9904'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'DL', 'display': "Driver's License"}], 'text': "Driver's License"}, 'system': 'urn:oid:2.16.840.1.113883.4.3.25', 'value': 'S99960263'}, {'type': {'coding': [{'system': 'http://terminology.hl7.org/CodeSystem/v2-0203', 'code': 'PPN', 'display': 'Passport Number'}], 'text': 'Passport Number'}, 'system': 'http://standardhealthrecord.org/fhir/StructureDefinition/passportNumber', 'value': 'X44084101X'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-152-6034', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-455-2751', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-106-9705', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-675-9219', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-418-5997', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-748-5270', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-418-2098', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-320-9982', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-640-7436', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-326-5395', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-950-7518', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-810-7175', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-131-4483', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-419-9987', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-501-4799', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-326-4619', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-665-1433', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-662-1542', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-884-9015', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-871-4223', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-136-2338', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-136-4712', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-103-6796', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-425-6567', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-567-4343', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-731-9882', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-777-8307', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-635-6296', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-811-6629', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-571-7714', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-893-4758', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-232-6974', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-425-8155', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-356-7633', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-704-6787', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-871-2672', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-976-8227', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-511-1204', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-544-7833', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-781-3576', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-193-6068', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-776-7787', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-383-8590', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-264-2183', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-808-2477', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-901-2648', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-127-9713', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-546-2848', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-916-9447', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-957-6483', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-294-9369', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-641-6943', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-734-3571', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-935-8764', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-959-4512', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-463-7100', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-544-6511', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-584-9981', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-422-6131', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-166-3716', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-160-1371', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-825-8595', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-688-2298', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-719-6702', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-731-2982', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-833-4897', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-704-3016', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-802-8500', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-992-6481', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-315-1469', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-480-6579', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-626-7922', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-202-8080', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-165-4080', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-827-4969', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-559-4415', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-226-3023', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>[{'system': 'phone', 'value': '555-606-8142', 'use': 'home'}]</t>
-  </si>
-  <si>
-    <t>['Aaron697']</t>
-  </si>
-  <si>
-    <t>['Abbey813']</t>
-  </si>
-  <si>
-    <t>['Beth967']</t>
-  </si>
-  <si>
-    <t>['Bette450']</t>
-  </si>
-  <si>
-    <t>['Bill567']</t>
-  </si>
-  <si>
-    <t>['Blanch844']</t>
-  </si>
-  <si>
-    <t>['Bob965']</t>
-  </si>
-  <si>
-    <t>['Bobbi508']</t>
-  </si>
-  <si>
-    <t>['Chase54']</t>
-  </si>
-  <si>
-    <t>['Chelsie189']</t>
-  </si>
-  <si>
-    <t>['Cherie102']</t>
-  </si>
-  <si>
-    <t>['Deedra511']</t>
-  </si>
-  <si>
-    <t>['Deena887']</t>
-  </si>
-  <si>
-    <t>['Delbert384']</t>
-  </si>
-  <si>
-    <t>['Delfina519']</t>
-  </si>
-  <si>
-    <t>['Delia459']</t>
-  </si>
-  <si>
-    <t>['Della552']</t>
-  </si>
-  <si>
-    <t>['Delmar187']</t>
-  </si>
-  <si>
-    <t>['Eveline832']</t>
-  </si>
-  <si>
-    <t>['Everett935']</t>
-  </si>
-  <si>
-    <t>['Everette494']</t>
-  </si>
-  <si>
-    <t>['Evon528']</t>
-  </si>
-  <si>
-    <t>['Genevive999']</t>
-  </si>
-  <si>
-    <t>['Georgann131']</t>
-  </si>
-  <si>
-    <t>['George991']</t>
-  </si>
-  <si>
-    <t>['Georgiana151']</t>
-  </si>
-  <si>
-    <t>['Georgianna701']</t>
-  </si>
-  <si>
-    <t>['Gilma310']</t>
-  </si>
-  <si>
-    <t>['Giuseppe872']</t>
-  </si>
-  <si>
-    <t>['Glen190']</t>
-  </si>
-  <si>
-    <t>['Gus973']</t>
-  </si>
-  <si>
-    <t>['Hank686']</t>
-  </si>
-  <si>
-    <t>['Hans694']</t>
-  </si>
-  <si>
-    <t>['Harland508']</t>
-  </si>
-  <si>
-    <t>['Harold594']</t>
-  </si>
-  <si>
-    <t>['James276']</t>
-  </si>
-  <si>
-    <t>['Jamey282']</t>
-  </si>
-  <si>
-    <t>['Jan231']</t>
-  </si>
-  <si>
-    <t>['Jana258']</t>
-  </si>
-  <si>
-    <t>['Jane262']</t>
-  </si>
-  <si>
-    <t>['Kayce253']</t>
-  </si>
-  <si>
-    <t>['Kazuko67']</t>
-  </si>
-  <si>
-    <t>['Kelli207']</t>
-  </si>
-  <si>
-    <t>['Leon728']</t>
-  </si>
-  <si>
-    <t>['Leonardo412']</t>
-  </si>
-  <si>
-    <t>['Leonora414']</t>
-  </si>
-  <si>
-    <t>['Les282']</t>
-  </si>
-  <si>
-    <t>['Lesley194']</t>
-  </si>
-  <si>
-    <t>['Lesli455']</t>
-  </si>
-  <si>
-    <t>['Leslie90']</t>
-  </si>
-  <si>
-    <t>['Loyd638']</t>
-  </si>
-  <si>
-    <t>['Luana867']</t>
-  </si>
-  <si>
-    <t>['Luanne915']</t>
-  </si>
-  <si>
-    <t>['Luciano237']</t>
-  </si>
-  <si>
-    <t>['Maria750']</t>
-  </si>
-  <si>
-    <t>['Marian936']</t>
-  </si>
-  <si>
-    <t>['Marianna323']</t>
-  </si>
-  <si>
-    <t>['Mariano761']</t>
-  </si>
-  <si>
-    <t>['MarÃ\xada JosÃ©279']</t>
-  </si>
-  <si>
-    <t>['Rubi442']</t>
-  </si>
-  <si>
-    <t>['Rubin812']</t>
-  </si>
-  <si>
-    <t>['Russell422']</t>
-  </si>
-  <si>
-    <t>['Ruthie901']</t>
-  </si>
-  <si>
-    <t>['Sachiko982']</t>
-  </si>
-  <si>
-    <t>['Sandee884']</t>
-  </si>
-  <si>
-    <t>['Sandy901']</t>
-  </si>
-  <si>
-    <t>['Santiago500']</t>
-  </si>
-  <si>
-    <t>['Zachery872']</t>
-  </si>
-  <si>
-    <t>['Zane918']</t>
+    <t>[{'Medical Record Number': '8c95253e-8ee8-9ae8-6d40-021d702dc78e', 'Social Security Number': '999-86-2571', "Driver's License": 'S99949530', 'Passport Number': 'X67249552X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '6fa23508-960e-ff22-c3d0-0519a036543b', 'Social Security Number': '999-77-5727', "Driver's License": 'S99921904', 'Passport Number': 'X44198863X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '83524678-9bff-93b7-ef89-d7f5390072ff', 'Social Security Number': '999-44-5148', "Driver's License": 'S99936370', 'Passport Number': 'X60269119X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '4e343b0a-8698-b6dd-64c6-c2d2d0959e6e', 'Social Security Number': '999-73-1554', "Driver's License": 'S99984711', 'Passport Number': 'X89811793X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '6e4ac285-2a8d-a30d-5ecb-e32cb595a876', 'Social Security Number': '999-92-6896', "Driver's License": 'S99913876', 'Passport Number': 'X18537023X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '1029f880-d3db-f477-9da3-f59c14ed22c6', 'Social Security Number': '999-73-8746', "Driver's License": 'S99997924', 'Passport Number': 'X22567330X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'a18edb30-e93c-8e9b-8e6a-95a651a24a36', 'Social Security Number': '999-36-3871', "Driver's License": 'S99974900', 'Passport Number': 'X23972026X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'f406a4e8-821b-0c9a-c8ec-09ad0f1fe9c6', 'Social Security Number': '999-55-8633', "Driver's License": 'S99966809', 'Passport Number': 'X77311867X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'b8c71fe0-e911-205e-19c3-b92e88e5b5a6', 'Social Security Number': '999-57-6713', "Driver's License": 'S99966092', 'Passport Number': 'X54583141X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'e5b7d947-da2b-9cf4-12a0-9eb2cf735330', 'Social Security Number': '999-64-3140', "Driver's License": 'S99939912', 'Passport Number': 'X9416817X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'b0478b4f-16f2-af38-d199-44db19304df2', 'Social Security Number': '999-37-5257', "Driver's License": 'S99974524', 'Passport Number': 'X56922751X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '0f978b87-8054-e6d3-aa03-20e101ea37c0', 'Social Security Number': '999-12-1352', "Driver's License": 'S99959699', 'Passport Number': 'X8010852X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'cced3031-d98c-d870-5dce-f0086d8c7a34', 'Social Security Number': '999-57-2405', "Driver's License": 'S99944423', 'Passport Number': 'X572225X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '7c4e1f8e-29e4-f88f-095a-aa6a9f55e6de', 'Social Security Number': '999-16-7674', "Driver's License": 'S99994310', 'Passport Number': 'X29560634X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '91cf58f9-191c-3a49-a979-2ca64e52c369', 'Social Security Number': '999-65-5932', "Driver's License": 'S99924979', 'Passport Number': 'X3878422X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'cf3ce382-cceb-1557-89ac-b751a9e0e65d', 'Social Security Number': '999-32-7067', "Driver's License": 'S99971051', 'Passport Number': 'X85172174X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '1ba50d39-8105-69de-09de-c6d5358b3cb6', 'Social Security Number': '999-18-8370', "Driver's License": 'S99952013', 'Passport Number': 'X49053901X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'b0f40536-9dc8-2ea0-0bbf-467a69f5e3ad', 'Social Security Number': '999-75-7681', "Driver's License": 'S99914793', 'Passport Number': 'X2718076X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'bdb76eef-1faf-1ed7-d1ff-553d7df26fb3', 'Social Security Number': '999-40-3074', "Driver's License": 'S99949878', 'Passport Number': 'X18021555X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '8a3247d3-a54c-43f2-2c5d-a8f5e28ff588', 'Social Security Number': '999-99-9746', "Driver's License": 'S99960167', 'Passport Number': 'X68181762X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '7b3071eb-aacb-0596-d7b5-4abcb83ac2f0', 'Social Security Number': '999-75-9428', "Driver's License": 'S99928369', 'Passport Number': 'X78500050X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'ac00ac90-9af7-5b4f-aca4-8b1b9990fc1a', 'Social Security Number': '999-81-4799', "Driver's License": 'S99958395', 'Passport Number': 'X7797404X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '6dcdc387-88f9-758d-260c-4235ac7c269f', 'Social Security Number': '999-80-9210', "Driver's License": 'S99966419', 'Passport Number': 'X8539782X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '839e7cf9-b7d6-da6c-70bb-c151bf5c1c61', 'Social Security Number': '999-35-7380', "Driver's License": 'S99944048', 'Passport Number': 'X70094895X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'd8cb2b2b-fee1-36de-2e1e-0fda2ed1d991', 'Social Security Number': '999-37-6950', "Driver's License": 'S99921705', 'Passport Number': 'X82162082X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'e94401de-18ad-e190-9113-ee5ff31b1439', 'Social Security Number': '999-51-6424', "Driver's License": 'S99930116', 'Passport Number': 'X86841029X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '0d55a582-07fe-a897-776c-3ab5e48cd457', 'Social Security Number': '999-20-9087', "Driver's License": 'S99957903', 'Passport Number': 'X4871961X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '0d7ad451-ac1b-dc0e-48bd-e0a8e1de4f15', 'Social Security Number': '999-82-3377', "Driver's License": 'S99953286', 'Passport Number': 'X57788101X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '3d496c42-21f9-8e42-aa2b-d021a1b79d46', 'Social Security Number': '999-80-9295', "Driver's License": 'S99994989', 'Passport Number': 'X59280082X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '09e292d4-f186-331c-ed95-c503acabc54e', 'Social Security Number': '999-50-2608', "Driver's License": 'S99922965', 'Passport Number': 'X55062132X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '3635f0e6-d517-43f9-c4b2-61ea16a60fa3', 'Social Security Number': '999-17-5471', "Driver's License": 'S99951928', 'Passport Number': 'X14472279X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'e7ffd26a-48e5-f10e-5565-2f4e8b09ee45', 'Social Security Number': '999-37-2467', "Driver's License": 'S99999219', 'Passport Number': 'X80707913X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'a57f2290-27ed-6117-2989-f42ef6d291ab', 'Social Security Number': '999-29-3899', "Driver's License": 'S99954706', 'Passport Number': 'X17350234X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '2d6c10cf-fade-6e45-0064-674792ff5ef1', 'Social Security Number': '999-22-8355', "Driver's License": 'S99990331', 'Passport Number': 'X12668064X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '4cef483d-6b1b-a284-b8fd-1de7f5aba0a4', 'Social Security Number': '999-91-7315', "Driver's License": 'S99955475', 'Passport Number': 'X24146584X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '9c02362b-0a48-be5e-7296-e332e383ebd2', 'Social Security Number': '999-21-2186', "Driver's License": 'S99938997', 'Passport Number': 'X43252439X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '2a0033b8-bd24-be26-eb24-8d6d9616b74f', 'Social Security Number': '999-31-9963', "Driver's License": 'S99943930', 'Passport Number': 'X42066618X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'fae4f7e3-622f-290c-068f-6d03e71dd5c9', 'Social Security Number': '999-28-4426', "Driver's License": 'S99919128', 'Passport Number': 'X38408123X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '9ebde11e-7248-e63c-25f9-4b793c3a5065', 'Social Security Number': '999-11-2493', "Driver's License": 'S99942409', 'Passport Number': 'X69950630X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '46b22d89-fe1a-3cf7-7ecb-b16c7390103f', 'Social Security Number': '999-21-9079', "Driver's License": 'S99968640', 'Passport Number': 'X23539215X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '37905eb6-a01d-0e34-a274-27ada76d3ccc', 'Social Security Number': '999-49-4483', "Driver's License": 'S99997762', 'Passport Number': 'X3980163X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'b0bccf43-3bf5-217c-7315-9e44d106bb6b', 'Social Security Number': '999-66-8073', "Driver's License": 'S99998624', 'Passport Number': 'X71072962X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'f8e9efe2-62db-29a2-46be-c72bad056ca8', 'Social Security Number': '999-81-2045', "Driver's License": 'S99974316', 'Passport Number': 'X87064068X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '5310622a-3368-34f0-c14a-b992c71e7d59', 'Social Security Number': '999-32-1799', "Driver's License": 'S99944029', 'Passport Number': 'X88280356X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '67ae02d5-002b-6bba-1854-642eba13aa0f', 'Social Security Number': '999-92-7273', "Driver's License": 'S99961040', 'Passport Number': 'X4040328X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '10bf6da8-ffa1-6913-a119-726634be754c', 'Social Security Number': '999-29-6008', "Driver's License": 'S99974783', 'Passport Number': 'X88476867X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'aad9d04b-bb30-2f47-d5dd-888b3b7bd831', 'Social Security Number': '999-15-1388', "Driver's License": 'S99951244', 'Passport Number': 'X47828744X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '1d2875d4-f60d-df84-d3e1-12dbafa29bd4', 'Social Security Number': '999-26-3931', "Driver's License": 'S99985828', 'Passport Number': 'X35885072X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '126a7e7a-958b-428b-907d-f2aa4fd7236b', 'Social Security Number': '999-30-3937', "Driver's License": 'S99927398', 'Passport Number': 'X58766603X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'a8e9746e-f807-bbb1-bdc1-83ade842694d', 'Social Security Number': '999-89-9105', "Driver's License": 'S99924772', 'Passport Number': 'X25953361X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '0ae2b985-af6e-485e-f0c5-fe0006c366e3', 'Social Security Number': '999-78-5304', "Driver's License": 'S99914450', 'Passport Number': 'X5091584X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'd3406315-0e5e-e5e3-da71-b3c9802bd004', 'Social Security Number': '999-23-9723', "Driver's License": 'S99910111', 'Passport Number': 'X12454361X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '4f0dc4bc-9ada-c8dd-31dc-ffcfbe80e186', 'Social Security Number': '999-86-5875', "Driver's License": 'S99935914', 'Passport Number': 'X86872869X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'c7eef66d-c5b9-f4da-bf58-550a8077ded6', 'Social Security Number': '999-90-4629', "Driver's License": 'S99979792', 'Passport Number': 'X23458281X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'f8c09661-fcd1-eeea-d61e-478109235532', 'Social Security Number': '999-34-8784', "Driver's License": 'S99977690', 'Passport Number': 'X67497912X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'aa4eae2c-733a-35f9-8869-d33a6015db23', 'Social Security Number': '999-70-3202', "Driver's License": 'S99922758', 'Passport Number': 'X15329259X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'da6120a6-4557-7db3-b44c-43c38568c119', 'Social Security Number': '999-41-1087', "Driver's License": 'S99974441', 'Passport Number': 'X3441471X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'ac56a3df-7399-e895-2a6e-6ae757f3f4a5', 'Social Security Number': '999-96-3011', "Driver's License": 'S99912483', 'Passport Number': 'X5189437X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '4a627a30-b963-bd1c-58be-0499f24d9670', 'Social Security Number': '999-78-9619', "Driver's License": 'S99960168', 'Passport Number': 'X30108696X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'c8c2969a-32d7-9694-ce15-378ae4d66413', 'Social Security Number': '999-16-3893', "Driver's License": 'S99982710', 'Passport Number': 'X27254935X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '89ba9a77-7aed-6cb8-6795-fb21f0ec237c', 'Social Security Number': '999-31-7681', "Driver's License": 'S99981576', 'Passport Number': 'X54032680X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '15201e77-7e36-0667-73bc-013783e57649', 'Social Security Number': '999-45-5589', "Driver's License": 'S99986786', 'Passport Number': 'X66801116X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': 'f38fe4a9-1634-144c-0147-53c0300c1561', 'Social Security Number': '999-38-3492', "Driver's License": 'S99941117', 'Passport Number': 'X72519883X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '686e4b2e-1f8d-7018-c335-1604a300121b', 'Social Security Number': '999-51-1293', "Driver's License": 'S99927670', 'Passport Number': 'X47498032X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '37d57af4-d27f-fb97-9b5c-a1090f5a57b7', 'Social Security Number': '999-76-6872', "Driver's License": 'S99998676', 'Passport Number': 'X6602431X'}]</t>
+  </si>
+  <si>
+    <t>[{'Medical Record Number': '4995ca99-2ab9-3b18-a56e-c33d29e53af0', 'Social Security Number': '999-86-9904', "Driver's License": 'S99960263', 'Passport Number': 'X44084101X'}]</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>555-152-6034</t>
+  </si>
+  <si>
+    <t>555-455-2751</t>
+  </si>
+  <si>
+    <t>555-106-9705</t>
+  </si>
+  <si>
+    <t>555-675-9219</t>
+  </si>
+  <si>
+    <t>555-418-5997</t>
+  </si>
+  <si>
+    <t>555-748-5270</t>
+  </si>
+  <si>
+    <t>555-418-2098</t>
+  </si>
+  <si>
+    <t>555-320-9982</t>
+  </si>
+  <si>
+    <t>555-640-7436</t>
+  </si>
+  <si>
+    <t>555-326-5395</t>
+  </si>
+  <si>
+    <t>555-950-7518</t>
+  </si>
+  <si>
+    <t>555-810-7175</t>
+  </si>
+  <si>
+    <t>555-131-4483</t>
+  </si>
+  <si>
+    <t>555-419-9987</t>
+  </si>
+  <si>
+    <t>555-501-4799</t>
+  </si>
+  <si>
+    <t>555-326-4619</t>
+  </si>
+  <si>
+    <t>555-665-1433</t>
+  </si>
+  <si>
+    <t>555-662-1542</t>
+  </si>
+  <si>
+    <t>555-884-9015</t>
+  </si>
+  <si>
+    <t>555-871-4223</t>
+  </si>
+  <si>
+    <t>555-136-2338</t>
+  </si>
+  <si>
+    <t>555-136-4712</t>
+  </si>
+  <si>
+    <t>555-103-6796</t>
+  </si>
+  <si>
+    <t>555-425-6567</t>
+  </si>
+  <si>
+    <t>555-567-4343</t>
+  </si>
+  <si>
+    <t>555-731-9882</t>
+  </si>
+  <si>
+    <t>555-777-8307</t>
+  </si>
+  <si>
+    <t>555-635-6296</t>
+  </si>
+  <si>
+    <t>555-811-6629</t>
+  </si>
+  <si>
+    <t>555-571-7714</t>
+  </si>
+  <si>
+    <t>555-893-4758</t>
+  </si>
+  <si>
+    <t>555-232-6974</t>
+  </si>
+  <si>
+    <t>555-425-8155</t>
+  </si>
+  <si>
+    <t>555-356-7633</t>
+  </si>
+  <si>
+    <t>555-704-6787</t>
+  </si>
+  <si>
+    <t>555-871-2672</t>
+  </si>
+  <si>
+    <t>555-976-8227</t>
+  </si>
+  <si>
+    <t>555-511-1204</t>
+  </si>
+  <si>
+    <t>555-544-7833</t>
+  </si>
+  <si>
+    <t>555-781-3576</t>
+  </si>
+  <si>
+    <t>555-193-6068</t>
+  </si>
+  <si>
+    <t>555-776-7787</t>
+  </si>
+  <si>
+    <t>555-383-8590</t>
+  </si>
+  <si>
+    <t>555-264-2183</t>
+  </si>
+  <si>
+    <t>555-808-2477</t>
+  </si>
+  <si>
+    <t>555-901-2648</t>
+  </si>
+  <si>
+    <t>555-127-9713</t>
+  </si>
+  <si>
+    <t>555-546-2848</t>
+  </si>
+  <si>
+    <t>555-916-9447</t>
+  </si>
+  <si>
+    <t>555-957-6483</t>
+  </si>
+  <si>
+    <t>555-294-9369</t>
+  </si>
+  <si>
+    <t>555-641-6943</t>
+  </si>
+  <si>
+    <t>555-734-3571</t>
+  </si>
+  <si>
+    <t>555-935-8764</t>
+  </si>
+  <si>
+    <t>555-959-4512</t>
+  </si>
+  <si>
+    <t>555-463-7100</t>
+  </si>
+  <si>
+    <t>555-544-6511</t>
+  </si>
+  <si>
+    <t>555-584-9981</t>
+  </si>
+  <si>
+    <t>555-422-6131</t>
+  </si>
+  <si>
+    <t>555-166-3716</t>
+  </si>
+  <si>
+    <t>555-160-1371</t>
+  </si>
+  <si>
+    <t>555-825-8595</t>
+  </si>
+  <si>
+    <t>555-688-2298</t>
+  </si>
+  <si>
+    <t>555-719-6702</t>
+  </si>
+  <si>
+    <t>555-731-2982</t>
+  </si>
+  <si>
+    <t>555-833-4897</t>
+  </si>
+  <si>
+    <t>555-704-3016</t>
+  </si>
+  <si>
+    <t>555-802-8500</t>
+  </si>
+  <si>
+    <t>555-992-6481</t>
+  </si>
+  <si>
+    <t>555-315-1469</t>
+  </si>
+  <si>
+    <t>555-480-6579</t>
+  </si>
+  <si>
+    <t>555-626-7922</t>
+  </si>
+  <si>
+    <t>555-202-8080</t>
+  </si>
+  <si>
+    <t>555-165-4080</t>
+  </si>
+  <si>
+    <t>555-827-4969</t>
+  </si>
+  <si>
+    <t>555-559-4415</t>
+  </si>
+  <si>
+    <t>555-226-3023</t>
+  </si>
+  <si>
+    <t>555-606-8142</t>
+  </si>
+  <si>
+    <t>Aaron697 Dickens475</t>
+  </si>
+  <si>
+    <t>Aaron697 Jerde200</t>
+  </si>
+  <si>
+    <t>Abbey813 Price929</t>
+  </si>
+  <si>
+    <t>Beth967 Hansen121</t>
+  </si>
+  <si>
+    <t>Bette450 Anderson154</t>
+  </si>
+  <si>
+    <t>Bill567 Breitenberg711</t>
+  </si>
+  <si>
+    <t>Blanch844 Kuhlman484</t>
+  </si>
+  <si>
+    <t>Bob965 Mohr916</t>
+  </si>
+  <si>
+    <t>Bobbi508 Beer512</t>
+  </si>
+  <si>
+    <t>Chase54 Crooks415</t>
+  </si>
+  <si>
+    <t>Chase54 Klocko335</t>
+  </si>
+  <si>
+    <t>Chelsie189 Larson43</t>
+  </si>
+  <si>
+    <t>Cherie102 Reinger292</t>
+  </si>
+  <si>
+    <t>Deedra511 Wilkinson796</t>
+  </si>
+  <si>
+    <t>Deena887 Fahey393</t>
+  </si>
+  <si>
+    <t>Delbert384 Farrell962</t>
+  </si>
+  <si>
+    <t>Delfina519 Murphy561</t>
+  </si>
+  <si>
+    <t>Delia459 Beier427</t>
+  </si>
+  <si>
+    <t>Della552 Ratke343</t>
+  </si>
+  <si>
+    <t>Delmar187 Lesch175</t>
+  </si>
+  <si>
+    <t>Eveline832 Volkman526</t>
+  </si>
+  <si>
+    <t>Everett935 Littel644</t>
+  </si>
+  <si>
+    <t>Everette494 Jerde200</t>
+  </si>
+  <si>
+    <t>Evon528 Hayes766</t>
+  </si>
+  <si>
+    <t>Genevive999 Crist667</t>
+  </si>
+  <si>
+    <t>Georgann131 Hansen121</t>
+  </si>
+  <si>
+    <t>George991 Kassulke119</t>
+  </si>
+  <si>
+    <t>Georgiana151 Jacobi462</t>
+  </si>
+  <si>
+    <t>Georgianna701 Ledner144</t>
+  </si>
+  <si>
+    <t>Gilma310 Hahn503</t>
+  </si>
+  <si>
+    <t>Giuseppe872 Haley279</t>
+  </si>
+  <si>
+    <t>Glen190 Glover433</t>
+  </si>
+  <si>
+    <t>Gus973 Windler79</t>
+  </si>
+  <si>
+    <t>Hank686 Ritchie586</t>
+  </si>
+  <si>
+    <t>Hans694 Fahey393</t>
+  </si>
+  <si>
+    <t>Hans694 Fritsch593</t>
+  </si>
+  <si>
+    <t>Hans694 Littel644</t>
+  </si>
+  <si>
+    <t>Harland508 Hintz995</t>
+  </si>
+  <si>
+    <t>Harold594 Grimes165</t>
+  </si>
+  <si>
+    <t>James276 Champlin946</t>
+  </si>
+  <si>
+    <t>Jamey282 Hayes766</t>
+  </si>
+  <si>
+    <t>Jan231 Tillman293</t>
+  </si>
+  <si>
+    <t>Jan231 Weber641</t>
+  </si>
+  <si>
+    <t>Jana258 Nikolaus26</t>
+  </si>
+  <si>
+    <t>Jane262 Strosin214</t>
+  </si>
+  <si>
+    <t>Kayce253 Gislason620</t>
+  </si>
+  <si>
+    <t>Kayce253 Johns824</t>
+  </si>
+  <si>
+    <t>Kazuko67 Dibbert990</t>
+  </si>
+  <si>
+    <t>Kelli207 Crooks415</t>
+  </si>
+  <si>
+    <t>Leon728 Roberts511</t>
+  </si>
+  <si>
+    <t>Leonardo412 Schuppe920</t>
+  </si>
+  <si>
+    <t>Leonora414 Rogahn59</t>
+  </si>
+  <si>
+    <t>Les282 Fritsch593</t>
+  </si>
+  <si>
+    <t>Lesley194 Ebert178</t>
+  </si>
+  <si>
+    <t>Lesli455 Champlin946</t>
+  </si>
+  <si>
+    <t>Lesli455 Prohaska837</t>
+  </si>
+  <si>
+    <t>Leslie90 Weissnat378</t>
+  </si>
+  <si>
+    <t>Loyd638 Hackett68</t>
+  </si>
+  <si>
+    <t>Loyd638 Russel238</t>
+  </si>
+  <si>
+    <t>Loyd638 Wiza601</t>
+  </si>
+  <si>
+    <t>Luana867 Rath779</t>
+  </si>
+  <si>
+    <t>Luanne915 Predovic534</t>
+  </si>
+  <si>
+    <t>Luciano237 Turcotte120</t>
+  </si>
+  <si>
+    <t>Maria750 Hessel84</t>
+  </si>
+  <si>
+    <t>Marian936 Gleason633</t>
+  </si>
+  <si>
+    <t>Marianna323 Champlin946</t>
+  </si>
+  <si>
+    <t>Mariano761 PatiÃ±o436</t>
+  </si>
+  <si>
+    <t>MarÃ­a JosÃ©279 Adorno791</t>
+  </si>
+  <si>
+    <t>Rubi442 Labadie908</t>
+  </si>
+  <si>
+    <t>Rubin812 Quigley282</t>
+  </si>
+  <si>
+    <t>Russell422 Walker122</t>
+  </si>
+  <si>
+    <t>Ruthie901 Mills423</t>
+  </si>
+  <si>
+    <t>Sachiko982 Gulgowski816</t>
+  </si>
+  <si>
+    <t>Sandee884 Hodkiewicz467</t>
+  </si>
+  <si>
+    <t>Sandy901 Conn188</t>
+  </si>
+  <si>
+    <t>Santiago500 Barton704</t>
+  </si>
+  <si>
+    <t>Zachery872 Wyman904</t>
+  </si>
+  <si>
+    <t>Zane918 Schoen8</t>
   </si>
   <si>
     <t>male</t>
@@ -1243,238 +1243,250 @@
     <t>2013-01-09T01:59:19+00:00</t>
   </si>
   <si>
-    <t>['859 Altenwerth Run Unit 88']</t>
-  </si>
-  <si>
-    <t>['736 Dare Mission']</t>
-  </si>
-  <si>
-    <t>['210 Nitzsche Vale Apt 73']</t>
-  </si>
-  <si>
-    <t>['606 Reichert Camp']</t>
-  </si>
-  <si>
-    <t>['502 Langosh Neck Unit 20']</t>
-  </si>
-  <si>
-    <t>['1029 Johnson Manor']</t>
-  </si>
-  <si>
-    <t>['654 Metz Path']</t>
-  </si>
-  <si>
-    <t>['531 Dare Tunnel']</t>
-  </si>
-  <si>
-    <t>['151 Crist Vista']</t>
-  </si>
-  <si>
-    <t>['818 Will Village']</t>
-  </si>
-  <si>
-    <t>['592 Ferry Knoll']</t>
-  </si>
-  <si>
-    <t>['610 Skiles Corner']</t>
-  </si>
-  <si>
-    <t>["1009 O'Connell Avenue Unit 34"]</t>
-  </si>
-  <si>
-    <t>['601 Stehr Extension']</t>
-  </si>
-  <si>
-    <t>['1073 Mertz Track']</t>
-  </si>
-  <si>
-    <t>['103 Monahan Heights Unit 48']</t>
-  </si>
-  <si>
-    <t>['421 Rau Path Unit 37']</t>
-  </si>
-  <si>
-    <t>['979 Bednar Village']</t>
-  </si>
-  <si>
-    <t>['232 Cremin Passage']</t>
-  </si>
-  <si>
-    <t>['122 Mueller Lodge Unit 62']</t>
-  </si>
-  <si>
-    <t>['918 Murray Corner Suite 5']</t>
-  </si>
-  <si>
-    <t>['304 Okuneva Alley Apt 39']</t>
-  </si>
-  <si>
-    <t>['282 Balistreri Light']</t>
-  </si>
-  <si>
-    <t>['947 Howe Annex Apt 40']</t>
-  </si>
-  <si>
-    <t>['714 Heaney Vale Suite 19']</t>
-  </si>
-  <si>
-    <t>['817 Larkin Annex Unit 50']</t>
-  </si>
-  <si>
-    <t>['483 Lubowitz Bridge']</t>
-  </si>
-  <si>
-    <t>['211 Wolf Promenade']</t>
-  </si>
-  <si>
-    <t>['592 Bailey Green']</t>
-  </si>
-  <si>
-    <t>['308 Greenfelder Parade Suite 94']</t>
-  </si>
-  <si>
-    <t>['222 Watsica Fork']</t>
-  </si>
-  <si>
-    <t>['642 Mann Estate']</t>
-  </si>
-  <si>
-    <t>['925 Buckridge Run Apt 15']</t>
-  </si>
-  <si>
-    <t>['885 Grant Mews']</t>
-  </si>
-  <si>
-    <t>['199 Kling Course']</t>
-  </si>
-  <si>
-    <t>['539 Rau Divide Suite 36']</t>
-  </si>
-  <si>
-    <t>['549 Rippin Avenue Unit 24']</t>
-  </si>
-  <si>
-    <t>['573 Rohan Neck Unit 39']</t>
-  </si>
-  <si>
-    <t>['321 Bartell Port Unit 34']</t>
-  </si>
-  <si>
-    <t>['907 Windler Meadow']</t>
-  </si>
-  <si>
-    <t>['907 Wilkinson Heights Apt 92']</t>
-  </si>
-  <si>
-    <t>['477 Runolfsdottir Rest Suite 72']</t>
-  </si>
-  <si>
-    <t>['796 Kuhn Parade Suite 72']</t>
-  </si>
-  <si>
-    <t>['583 Haley Gardens']</t>
-  </si>
-  <si>
-    <t>['669 Kilback Rapid Apt 75']</t>
-  </si>
-  <si>
-    <t>['404 Howell Crossroad']</t>
-  </si>
-  <si>
-    <t>['292 Kub Neck']</t>
-  </si>
-  <si>
-    <t>['792 Daniel Quay Suite 81']</t>
-  </si>
-  <si>
-    <t>['859 Raynor Passage']</t>
-  </si>
-  <si>
-    <t>['633 Turcotte Grove Unit 29']</t>
-  </si>
-  <si>
-    <t>['848 Miller Ville']</t>
-  </si>
-  <si>
-    <t>['799 Macejkovic Boulevard']</t>
-  </si>
-  <si>
-    <t>['838 Feil Gardens']</t>
-  </si>
-  <si>
-    <t>["176 D'Amore Glen Apt 83"]</t>
-  </si>
-  <si>
-    <t>['176 Feest Junction']</t>
-  </si>
-  <si>
-    <t>['421 Schinner Arcade Suite 28']</t>
-  </si>
-  <si>
-    <t>['565 Weimann Knoll']</t>
-  </si>
-  <si>
-    <t>['646 Wiegand Divide']</t>
-  </si>
-  <si>
-    <t>['917 Morissette Mission']</t>
-  </si>
-  <si>
-    <t>['716 Bechtelar Skyway Unit 14']</t>
-  </si>
-  <si>
-    <t>['951 Bednar Plaza']</t>
-  </si>
-  <si>
-    <t>['1006 Fahey Esplanade Apt 47']</t>
-  </si>
-  <si>
-    <t>['639 Walker Extension']</t>
-  </si>
-  <si>
-    <t>['255 Hamill Run Apt 52']</t>
-  </si>
-  <si>
-    <t>['456 Cronin Landing']</t>
-  </si>
-  <si>
-    <t>['320 Prohaska Crossing']</t>
-  </si>
-  <si>
-    <t>['385 Bosco Mews Unit 82']</t>
-  </si>
-  <si>
-    <t>['379 Langworth Divide']</t>
-  </si>
-  <si>
-    <t>['481 Durgan Fort Suite 15']</t>
-  </si>
-  <si>
-    <t>['493 Nader Loaf']</t>
-  </si>
-  <si>
-    <t>['1038 Crist Annex']</t>
-  </si>
-  <si>
-    <t>['522 Greenholt Rapid']</t>
-  </si>
-  <si>
-    <t>['616 Leffler Gardens']</t>
-  </si>
-  <si>
-    <t>['350 Frami Trafficway']</t>
-  </si>
-  <si>
-    <t>['511 Grant Heights']</t>
-  </si>
-  <si>
-    <t>['703 Armstrong Estate']</t>
-  </si>
-  <si>
-    <t>['461 Wiza Corner Apt 50']</t>
-  </si>
-  <si>
-    <t>['563 Bechtelar Wall Suite 1']</t>
+    <t>859 Altenwerth Run Unit 88,Charlton,MA,US</t>
+  </si>
+  <si>
+    <t>736 Dare Mission,Boston,MA,US</t>
+  </si>
+  <si>
+    <t>210 Nitzsche Vale Apt 73,Springfield,MA,US</t>
+  </si>
+  <si>
+    <t>606 Reichert Camp,Fall River,MA,US</t>
+  </si>
+  <si>
+    <t>502 Langosh Neck Unit 20,Dracut,MA,US</t>
+  </si>
+  <si>
+    <t>1029 Johnson Manor,Devens,MA,US</t>
+  </si>
+  <si>
+    <t>654 Metz Path,Sandwich,MA,US</t>
+  </si>
+  <si>
+    <t>531 Dare Tunnel,Arlington,MA,US</t>
+  </si>
+  <si>
+    <t>151 Crist Vista,Tewksbury,MA,US</t>
+  </si>
+  <si>
+    <t>818 Will Village,Franklin,MA,US</t>
+  </si>
+  <si>
+    <t>592 Ferry Knoll,Fairhaven,MA,US</t>
+  </si>
+  <si>
+    <t>610 Skiles Corner,Concord,MA,US</t>
+  </si>
+  <si>
+    <t>1009 O'Connell Avenue Unit 34,Sandwich,MA,US</t>
+  </si>
+  <si>
+    <t>601 Stehr Extension,Saugus,MA,US</t>
+  </si>
+  <si>
+    <t>1073 Mertz Track,Fall River,MA,US</t>
+  </si>
+  <si>
+    <t>103 Monahan Heights Unit 48,Stoughton,MA,US</t>
+  </si>
+  <si>
+    <t>421 Rau Path Unit 37,Carver,MA,US</t>
+  </si>
+  <si>
+    <t>979 Bednar Village,Arlington,MA,US</t>
+  </si>
+  <si>
+    <t>232 Cremin Passage,Waltham,MA,US</t>
+  </si>
+  <si>
+    <t>122 Mueller Lodge Unit 62,West Yarmouth,MA,US</t>
+  </si>
+  <si>
+    <t>918 Murray Corner Suite 5,Lancaster,MA,US</t>
+  </si>
+  <si>
+    <t>304 Okuneva Alley Apt 39,Lawrence,MA,US</t>
+  </si>
+  <si>
+    <t>282 Balistreri Light,Needham,MA,US</t>
+  </si>
+  <si>
+    <t>947 Howe Annex Apt 40,Pocasset,MA,US</t>
+  </si>
+  <si>
+    <t>714 Heaney Vale Suite 19,Grafton,MA,US</t>
+  </si>
+  <si>
+    <t>817 Larkin Annex Unit 50,Forestdale,MA,US</t>
+  </si>
+  <si>
+    <t>483 Lubowitz Bridge,Medford,MA,US</t>
+  </si>
+  <si>
+    <t>211 Wolf Promenade,Lexington,MA,US</t>
+  </si>
+  <si>
+    <t>592 Bailey Green,Falmouth,MA,US</t>
+  </si>
+  <si>
+    <t>308 Greenfelder Parade Suite 94,Chicopee,MA,US</t>
+  </si>
+  <si>
+    <t>222 Watsica Fork,Springfield,MA,US</t>
+  </si>
+  <si>
+    <t>642 Mann Estate,Chicopee,MA,US</t>
+  </si>
+  <si>
+    <t>925 Buckridge Run Apt 15,Gardner,MA,US</t>
+  </si>
+  <si>
+    <t>885 Grant Mews,Walpole,MA,US</t>
+  </si>
+  <si>
+    <t>199 Kling Course,Mattapoisett,MA,US</t>
+  </si>
+  <si>
+    <t>539 Rau Divide Suite 36,New Bedford,MA,US</t>
+  </si>
+  <si>
+    <t>549 Rippin Avenue Unit 24,Fall River,MA,US</t>
+  </si>
+  <si>
+    <t>573 Rohan Neck Unit 39,Boston,MA,US</t>
+  </si>
+  <si>
+    <t>321 Bartell Port Unit 34,Worcester,MA,US</t>
+  </si>
+  <si>
+    <t>907 Windler Meadow,Fiskdale,MA,US</t>
+  </si>
+  <si>
+    <t>907 Wilkinson Heights Apt 92,Newton,MA,US</t>
+  </si>
+  <si>
+    <t>477 Runolfsdottir Rest Suite 72,Beverly,MA,US</t>
+  </si>
+  <si>
+    <t>796 Kuhn Parade Suite 72,Lawrence,MA,US</t>
+  </si>
+  <si>
+    <t>583 Haley Gardens,Medford,MA,US</t>
+  </si>
+  <si>
+    <t>669 Kilback Rapid Apt 75,Stoneham,MA,US</t>
+  </si>
+  <si>
+    <t>404 Howell Crossroad,Sharon,MA,US</t>
+  </si>
+  <si>
+    <t>292 Kub Neck,Tewksbury,MA,US</t>
+  </si>
+  <si>
+    <t>792 Daniel Quay Suite 81,Bellingham,MA,US</t>
+  </si>
+  <si>
+    <t>859 Raynor Passage,Harwich,MA,US</t>
+  </si>
+  <si>
+    <t>633 Turcotte Grove Unit 29,Wellesley,MA,US</t>
+  </si>
+  <si>
+    <t>848 Miller Ville,Taunton,MA,US</t>
+  </si>
+  <si>
+    <t>799 Macejkovic Boulevard,Waltham,MA,US</t>
+  </si>
+  <si>
+    <t>838 Feil Gardens,Tyngsborough,MA,US</t>
+  </si>
+  <si>
+    <t>176 D'Amore Glen Apt 83,Pepperell,MA,US</t>
+  </si>
+  <si>
+    <t>176 Feest Junction,Attleboro,MA,US</t>
+  </si>
+  <si>
+    <t>421 Schinner Arcade Suite 28,Needham,MA,US</t>
+  </si>
+  <si>
+    <t>565 Weimann Knoll,Chatham,MA,US</t>
+  </si>
+  <si>
+    <t>646 Wiegand Divide,Falmouth,MA,US</t>
+  </si>
+  <si>
+    <t>917 Morissette Mission,Chelmsford,MA,US</t>
+  </si>
+  <si>
+    <t>716 Bechtelar Skyway Unit 14,Sterling,MA,US</t>
+  </si>
+  <si>
+    <t>951 Bednar Plaza,Weston,MA,US</t>
+  </si>
+  <si>
+    <t>1006 Fahey Esplanade Apt 47,Whitinsville,MA,US</t>
+  </si>
+  <si>
+    <t>639 Walker Extension,Boston,MA,US</t>
+  </si>
+  <si>
+    <t>255 Hamill Run Apt 52,Marblehead,MA,US</t>
+  </si>
+  <si>
+    <t>456 Cronin Landing,Hingham,MA,US</t>
+  </si>
+  <si>
+    <t>320 Prohaska Crossing,Newton,MA,US</t>
+  </si>
+  <si>
+    <t>385 Bosco Mews Unit 82,Fall River,MA,US</t>
+  </si>
+  <si>
+    <t>379 Langworth Divide,Worcester,MA,US</t>
+  </si>
+  <si>
+    <t>379 Langworth Divide,Worcester,MA,US,Worcester,MA,US</t>
+  </si>
+  <si>
+    <t>481 Durgan Fort Suite 15,Concord,MA,US</t>
+  </si>
+  <si>
+    <t>493 Nader Loaf,Marblehead,MA,US</t>
+  </si>
+  <si>
+    <t>1038 Crist Annex,Salem,MA,US</t>
+  </si>
+  <si>
+    <t>522 Greenholt Rapid,Hudson,MA,US</t>
+  </si>
+  <si>
+    <t>616 Leffler Gardens,Randolph,MA,US</t>
+  </si>
+  <si>
+    <t>350 Frami Trafficway,Sharon,MA,US</t>
+  </si>
+  <si>
+    <t>511 Grant Heights,Lincoln,MA,US</t>
+  </si>
+  <si>
+    <t>703 Armstrong Estate,Medway,MA,US</t>
+  </si>
+  <si>
+    <t>461 Wiza Corner Apt 50,Danvers,MA,US</t>
+  </si>
+  <si>
+    <t>563 Bechtelar Wall Suite 1,Barnstable,MA,US</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Never Married</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
   <si>
     <t>English</t>
@@ -1844,13 +1856,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1896,25 +1908,31 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>161</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="H2" t="s">
         <v>319</v>
@@ -1922,34 +1940,43 @@
       <c r="I2" t="s">
         <v>321</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>399</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>409</v>
       </c>
       <c r="P2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>162</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H3" t="s">
         <v>319</v>
@@ -1957,31 +1984,40 @@
       <c r="I3" t="s">
         <v>322</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>410</v>
       </c>
       <c r="P3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>162</v>
       </c>
       <c r="F4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H4" t="s">
         <v>320</v>
@@ -1989,31 +2025,40 @@
       <c r="I4" t="s">
         <v>323</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>411</v>
       </c>
       <c r="P4" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>490</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H5" t="s">
         <v>320</v>
@@ -2021,31 +2066,40 @@
       <c r="I5" t="s">
         <v>324</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
         <v>412</v>
       </c>
       <c r="P5" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>162</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G6" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="H6" t="s">
         <v>320</v>
@@ -2053,31 +2107,40 @@
       <c r="I6" t="s">
         <v>325</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>413</v>
       </c>
       <c r="P6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>162</v>
       </c>
       <c r="F7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H7" t="s">
         <v>319</v>
@@ -2085,31 +2148,40 @@
       <c r="I7" t="s">
         <v>326</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
         <v>414</v>
       </c>
       <c r="P7" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>162</v>
       </c>
       <c r="F8" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H8" t="s">
         <v>320</v>
@@ -2117,31 +2189,40 @@
       <c r="I8" t="s">
         <v>327</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
         <v>415</v>
       </c>
       <c r="P8" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E9" t="s">
+        <v>162</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G9" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H9" t="s">
         <v>319</v>
@@ -2149,31 +2230,40 @@
       <c r="I9" t="s">
         <v>328</v>
       </c>
-      <c r="L9" t="s">
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>416</v>
       </c>
       <c r="P9" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>162</v>
       </c>
       <c r="F10" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G10" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H10" t="s">
         <v>320</v>
@@ -2181,31 +2271,40 @@
       <c r="I10" t="s">
         <v>329</v>
       </c>
-      <c r="L10" t="s">
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
         <v>417</v>
       </c>
       <c r="P10" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>162</v>
       </c>
       <c r="F11" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G11" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H11" t="s">
         <v>319</v>
@@ -2213,31 +2312,40 @@
       <c r="I11" t="s">
         <v>330</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
         <v>418</v>
       </c>
       <c r="P11" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>162</v>
       </c>
       <c r="F12" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G12" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H12" t="s">
         <v>319</v>
@@ -2245,31 +2353,40 @@
       <c r="I12" t="s">
         <v>331</v>
       </c>
-      <c r="L12" t="s">
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
         <v>419</v>
       </c>
       <c r="P12" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>490</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>162</v>
       </c>
       <c r="F13" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G13" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H13" t="s">
         <v>320</v>
@@ -2277,31 +2394,37 @@
       <c r="I13" t="s">
         <v>332</v>
       </c>
-      <c r="L13" t="s">
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
         <v>420</v>
       </c>
       <c r="P13" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>106</v>
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>162</v>
       </c>
       <c r="F14" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H14" t="s">
         <v>320</v>
@@ -2309,31 +2432,40 @@
       <c r="I14" t="s">
         <v>333</v>
       </c>
-      <c r="L14" t="s">
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
         <v>421</v>
       </c>
       <c r="P14" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>107</v>
       </c>
+      <c r="E15" t="s">
+        <v>162</v>
+      </c>
       <c r="F15" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H15" t="s">
         <v>320</v>
@@ -2341,31 +2473,40 @@
       <c r="I15" t="s">
         <v>334</v>
       </c>
-      <c r="L15" t="s">
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
         <v>422</v>
       </c>
       <c r="P15" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>490</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>108</v>
       </c>
+      <c r="E16" t="s">
+        <v>161</v>
+      </c>
       <c r="F16" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H16" t="s">
         <v>320</v>
@@ -2373,34 +2514,43 @@
       <c r="I16" t="s">
         <v>335</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
         <v>400</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>423</v>
       </c>
       <c r="P16" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>109</v>
       </c>
+      <c r="E17" t="s">
+        <v>162</v>
+      </c>
       <c r="F17" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G17" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="H17" t="s">
         <v>319</v>
@@ -2408,31 +2558,40 @@
       <c r="I17" t="s">
         <v>336</v>
       </c>
-      <c r="L17" t="s">
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
         <v>424</v>
       </c>
       <c r="P17" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
         <v>110</v>
       </c>
+      <c r="E18" t="s">
+        <v>162</v>
+      </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H18" t="s">
         <v>320</v>
@@ -2440,31 +2599,40 @@
       <c r="I18" t="s">
         <v>337</v>
       </c>
-      <c r="L18" t="s">
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
         <v>425</v>
       </c>
       <c r="P18" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>111</v>
       </c>
+      <c r="E19" t="s">
+        <v>162</v>
+      </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H19" t="s">
         <v>320</v>
@@ -2472,31 +2640,40 @@
       <c r="I19" t="s">
         <v>338</v>
       </c>
-      <c r="L19" t="s">
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
         <v>426</v>
       </c>
       <c r="P19" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
         <v>112</v>
       </c>
+      <c r="E20" t="s">
+        <v>162</v>
+      </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H20" t="s">
         <v>320</v>
@@ -2504,31 +2681,37 @@
       <c r="I20" t="s">
         <v>339</v>
       </c>
-      <c r="L20" t="s">
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
         <v>427</v>
       </c>
       <c r="P20" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>113</v>
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>162</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H21" t="s">
         <v>319</v>
@@ -2536,31 +2719,40 @@
       <c r="I21" t="s">
         <v>340</v>
       </c>
-      <c r="L21" t="s">
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
         <v>428</v>
       </c>
       <c r="P21" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="E22" t="s">
+        <v>162</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H22" t="s">
         <v>320</v>
@@ -2568,31 +2760,40 @@
       <c r="I22" t="s">
         <v>341</v>
       </c>
-      <c r="L22" t="s">
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
         <v>429</v>
       </c>
       <c r="P22" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>490</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>162</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G23" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H23" t="s">
         <v>319</v>
@@ -2600,31 +2801,40 @@
       <c r="I23" t="s">
         <v>342</v>
       </c>
-      <c r="L23" t="s">
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
         <v>430</v>
       </c>
       <c r="P23" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>162</v>
       </c>
       <c r="F24" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G24" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H24" t="s">
         <v>319</v>
@@ -2632,31 +2842,40 @@
       <c r="I24" t="s">
         <v>343</v>
       </c>
-      <c r="L24" t="s">
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
         <v>431</v>
       </c>
       <c r="P24" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>490</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="E25" t="s">
+        <v>162</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G25" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H25" t="s">
         <v>320</v>
@@ -2664,31 +2883,40 @@
       <c r="I25" t="s">
         <v>344</v>
       </c>
-      <c r="L25" t="s">
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
         <v>432</v>
       </c>
       <c r="P25" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="E26" t="s">
+        <v>162</v>
       </c>
       <c r="F26" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G26" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H26" t="s">
         <v>320</v>
@@ -2696,31 +2924,37 @@
       <c r="I26" t="s">
         <v>345</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>433</v>
       </c>
       <c r="P26" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="E27" t="s">
+        <v>162</v>
       </c>
       <c r="F27" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G27" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H27" t="s">
         <v>320</v>
@@ -2728,31 +2962,40 @@
       <c r="I27" t="s">
         <v>346</v>
       </c>
-      <c r="L27" t="s">
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
         <v>434</v>
       </c>
       <c r="P27" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="E28" t="s">
+        <v>161</v>
       </c>
       <c r="F28" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G28" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H28" t="s">
         <v>319</v>
@@ -2760,34 +3003,43 @@
       <c r="I28" t="s">
         <v>347</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
         <v>401</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>435</v>
       </c>
       <c r="P28" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="E29" t="s">
+        <v>162</v>
       </c>
       <c r="F29" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G29" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H29" t="s">
         <v>320</v>
@@ -2795,31 +3047,37 @@
       <c r="I29" t="s">
         <v>348</v>
       </c>
-      <c r="L29" t="s">
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
         <v>436</v>
       </c>
       <c r="P29" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>122</v>
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>162</v>
       </c>
       <c r="F30" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G30" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H30" t="s">
         <v>320</v>
@@ -2827,31 +3085,40 @@
       <c r="I30" t="s">
         <v>349</v>
       </c>
-      <c r="L30" t="s">
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
         <v>437</v>
       </c>
       <c r="P30" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="E31" t="s">
+        <v>162</v>
       </c>
       <c r="F31" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G31" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H31" t="s">
         <v>320</v>
@@ -2859,31 +3126,40 @@
       <c r="I31" t="s">
         <v>350</v>
       </c>
-      <c r="L31" t="s">
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
         <v>438</v>
       </c>
       <c r="P31" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>490</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="E32" t="s">
+        <v>161</v>
       </c>
       <c r="F32" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G32" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H32" t="s">
         <v>319</v>
@@ -2891,34 +3167,43 @@
       <c r="I32" t="s">
         <v>351</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
         <v>402</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>439</v>
       </c>
       <c r="P32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="E33" t="s">
+        <v>162</v>
       </c>
       <c r="F33" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="G33" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H33" t="s">
         <v>319</v>
@@ -2926,31 +3211,40 @@
       <c r="I33" t="s">
         <v>352</v>
       </c>
-      <c r="L33" t="s">
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
         <v>440</v>
       </c>
       <c r="P33" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="E34" t="s">
+        <v>161</v>
       </c>
       <c r="F34" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G34" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H34" t="s">
         <v>319</v>
@@ -2958,34 +3252,40 @@
       <c r="I34" t="s">
         <v>353</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
         <v>403</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>441</v>
       </c>
       <c r="P34" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" t="s">
-        <v>127</v>
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>162</v>
       </c>
       <c r="F35" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G35" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H35" t="s">
         <v>319</v>
@@ -2993,31 +3293,40 @@
       <c r="I35" t="s">
         <v>354</v>
       </c>
-      <c r="L35" t="s">
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
         <v>442</v>
       </c>
       <c r="P35" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="E36" t="s">
+        <v>162</v>
       </c>
       <c r="F36" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G36" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H36" t="s">
         <v>319</v>
@@ -3025,31 +3334,37 @@
       <c r="I36" t="s">
         <v>355</v>
       </c>
-      <c r="L36" t="s">
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
         <v>443</v>
       </c>
       <c r="P36" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" t="s">
-        <v>129</v>
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>162</v>
       </c>
       <c r="F37" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G37" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H37" t="s">
         <v>319</v>
@@ -3057,31 +3372,40 @@
       <c r="I37" t="s">
         <v>356</v>
       </c>
-      <c r="L37" t="s">
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
         <v>444</v>
       </c>
       <c r="P37" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="E38" t="s">
+        <v>162</v>
       </c>
       <c r="F38" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G38" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H38" t="s">
         <v>319</v>
@@ -3089,31 +3413,40 @@
       <c r="I38" t="s">
         <v>357</v>
       </c>
-      <c r="L38" t="s">
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
         <v>445</v>
       </c>
       <c r="P38" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="E39" t="s">
+        <v>162</v>
       </c>
       <c r="F39" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="G39" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H39" t="s">
         <v>319</v>
@@ -3121,31 +3454,40 @@
       <c r="I39" t="s">
         <v>358</v>
       </c>
-      <c r="L39" t="s">
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
         <v>446</v>
       </c>
       <c r="P39" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>128</v>
+      </c>
+      <c r="E40" t="s">
+        <v>162</v>
       </c>
       <c r="F40" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G40" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H40" t="s">
         <v>319</v>
@@ -3153,31 +3495,40 @@
       <c r="I40" t="s">
         <v>359</v>
       </c>
-      <c r="L40" t="s">
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
         <v>447</v>
       </c>
       <c r="P40" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>490</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="E41" t="s">
+        <v>162</v>
       </c>
       <c r="F41" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G41" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H41" t="s">
         <v>320</v>
@@ -3185,31 +3536,40 @@
       <c r="I41" t="s">
         <v>360</v>
       </c>
-      <c r="L41" t="s">
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
         <v>448</v>
       </c>
       <c r="P41" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+        <v>490</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="E42" t="s">
+        <v>162</v>
       </c>
       <c r="F42" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="G42" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H42" t="s">
         <v>319</v>
@@ -3217,31 +3577,40 @@
       <c r="I42" t="s">
         <v>361</v>
       </c>
-      <c r="L42" t="s">
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
         <v>449</v>
       </c>
       <c r="P42" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="E43" t="s">
+        <v>162</v>
       </c>
       <c r="F43" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G43" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H43" t="s">
         <v>320</v>
@@ -3249,31 +3618,40 @@
       <c r="I43" t="s">
         <v>362</v>
       </c>
-      <c r="L43" t="s">
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
         <v>450</v>
       </c>
       <c r="P43" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="E44" t="s">
+        <v>162</v>
       </c>
       <c r="F44" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G44" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H44" t="s">
         <v>319</v>
@@ -3281,31 +3659,40 @@
       <c r="I44" t="s">
         <v>363</v>
       </c>
-      <c r="L44" t="s">
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
         <v>451</v>
       </c>
       <c r="P44" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>133</v>
+      </c>
+      <c r="E45" t="s">
+        <v>162</v>
       </c>
       <c r="F45" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G45" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H45" t="s">
         <v>320</v>
@@ -3313,31 +3700,40 @@
       <c r="I45" t="s">
         <v>364</v>
       </c>
-      <c r="L45" t="s">
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
         <v>452</v>
       </c>
       <c r="P45" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+      <c r="E46" t="s">
+        <v>162</v>
       </c>
       <c r="F46" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G46" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H46" t="s">
         <v>320</v>
@@ -3345,31 +3741,40 @@
       <c r="I46" t="s">
         <v>365</v>
       </c>
-      <c r="L46" t="s">
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
         <v>453</v>
       </c>
       <c r="P46" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>135</v>
+      </c>
+      <c r="E47" t="s">
+        <v>161</v>
       </c>
       <c r="F47" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G47" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H47" t="s">
         <v>320</v>
@@ -3377,34 +3782,43 @@
       <c r="I47" t="s">
         <v>366</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
         <v>404</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>454</v>
       </c>
       <c r="P47" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="E48" t="s">
+        <v>162</v>
       </c>
       <c r="F48" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G48" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H48" t="s">
         <v>320</v>
@@ -3412,31 +3826,40 @@
       <c r="I48" t="s">
         <v>367</v>
       </c>
-      <c r="L48" t="s">
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
         <v>455</v>
       </c>
       <c r="P48" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>137</v>
+      </c>
+      <c r="E49" t="s">
+        <v>162</v>
       </c>
       <c r="F49" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G49" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H49" t="s">
         <v>320</v>
@@ -3444,31 +3867,40 @@
       <c r="I49" t="s">
         <v>368</v>
       </c>
-      <c r="L49" t="s">
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
         <v>456</v>
       </c>
       <c r="P49" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="E50" t="s">
+        <v>162</v>
       </c>
       <c r="F50" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G50" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H50" t="s">
         <v>320</v>
@@ -3476,31 +3908,40 @@
       <c r="I50" t="s">
         <v>369</v>
       </c>
-      <c r="L50" t="s">
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
         <v>457</v>
       </c>
       <c r="P50" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="E51" t="s">
+        <v>162</v>
       </c>
       <c r="F51" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G51" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H51" t="s">
         <v>320</v>
@@ -3508,31 +3949,40 @@
       <c r="I51" t="s">
         <v>370</v>
       </c>
-      <c r="L51" t="s">
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
         <v>458</v>
       </c>
       <c r="P51" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="E52" t="s">
+        <v>162</v>
       </c>
       <c r="F52" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G52" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H52" t="s">
         <v>319</v>
@@ -3540,31 +3990,34 @@
       <c r="I52" t="s">
         <v>371</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>459</v>
       </c>
       <c r="P52" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" t="s">
-        <v>145</v>
+        <v>68</v>
+      </c>
+      <c r="E53" t="s">
+        <v>162</v>
       </c>
       <c r="F53" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G53" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H53" t="s">
         <v>320</v>
@@ -3572,31 +4025,40 @@
       <c r="I53" t="s">
         <v>372</v>
       </c>
-      <c r="L53" t="s">
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
         <v>460</v>
       </c>
       <c r="P53" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>141</v>
+      </c>
+      <c r="E54" t="s">
+        <v>161</v>
       </c>
       <c r="F54" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G54" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H54" t="s">
         <v>319</v>
@@ -3604,34 +4066,40 @@
       <c r="I54" t="s">
         <v>373</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="s">
         <v>405</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>461</v>
       </c>
       <c r="P54" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" t="s">
-        <v>147</v>
+        <v>70</v>
+      </c>
+      <c r="E55" t="s">
+        <v>162</v>
       </c>
       <c r="F55" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G55" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H55" t="s">
         <v>319</v>
@@ -3639,31 +4107,40 @@
       <c r="I55" t="s">
         <v>374</v>
       </c>
-      <c r="L55" t="s">
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
         <v>462</v>
       </c>
       <c r="P55" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
+        <v>142</v>
+      </c>
+      <c r="E56" t="s">
+        <v>161</v>
       </c>
       <c r="F56" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G56" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H56" t="s">
         <v>320</v>
@@ -3671,34 +4148,43 @@
       <c r="I56" t="s">
         <v>375</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
         <v>406</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>463</v>
       </c>
       <c r="P56" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>143</v>
+      </c>
+      <c r="E57" t="s">
+        <v>162</v>
       </c>
       <c r="F57" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H57" t="s">
         <v>320</v>
@@ -3706,31 +4192,40 @@
       <c r="I57" t="s">
         <v>376</v>
       </c>
-      <c r="L57" t="s">
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
         <v>464</v>
       </c>
       <c r="P57" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>144</v>
+      </c>
+      <c r="E58" t="s">
+        <v>162</v>
       </c>
       <c r="F58" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G58" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H58" t="s">
         <v>320</v>
@@ -3738,31 +4233,37 @@
       <c r="I58" t="s">
         <v>377</v>
       </c>
-      <c r="L58" t="s">
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
         <v>465</v>
       </c>
       <c r="P58" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" t="s">
-        <v>151</v>
+        <v>74</v>
+      </c>
+      <c r="E59" t="s">
+        <v>162</v>
       </c>
       <c r="F59" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G59" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H59" t="s">
         <v>319</v>
@@ -3770,31 +4271,40 @@
       <c r="I59" t="s">
         <v>378</v>
       </c>
-      <c r="L59" t="s">
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
         <v>466</v>
       </c>
       <c r="P59" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="E60" t="s">
+        <v>162</v>
       </c>
       <c r="F60" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G60" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H60" t="s">
         <v>319</v>
@@ -3802,28 +4312,34 @@
       <c r="I60" t="s">
         <v>379</v>
       </c>
-      <c r="L60" t="s">
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
         <v>467</v>
       </c>
       <c r="P60" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+        <v>490</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
-      </c>
-      <c r="D61" t="s">
-        <v>153</v>
+        <v>76</v>
+      </c>
+      <c r="E61" t="s">
+        <v>162</v>
       </c>
       <c r="F61" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="G61" t="s">
         <v>300</v>
@@ -3834,28 +4350,34 @@
       <c r="I61" t="s">
         <v>380</v>
       </c>
-      <c r="L61" t="s">
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="s">
         <v>468</v>
       </c>
       <c r="P61" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
-      </c>
-      <c r="D62" t="s">
-        <v>154</v>
+        <v>77</v>
+      </c>
+      <c r="E62" t="s">
+        <v>162</v>
       </c>
       <c r="F62" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G62" t="s">
         <v>301</v>
@@ -3866,28 +4388,37 @@
       <c r="I62" t="s">
         <v>381</v>
       </c>
-      <c r="L62" t="s">
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="s">
         <v>469</v>
       </c>
       <c r="P62" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="E63" t="s">
+        <v>162</v>
       </c>
       <c r="F63" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G63" t="s">
         <v>302</v>
@@ -3898,28 +4429,37 @@
       <c r="I63" t="s">
         <v>382</v>
       </c>
-      <c r="L63" t="s">
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
         <v>470</v>
       </c>
       <c r="P63" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D64" t="s">
-        <v>156</v>
+        <v>147</v>
+      </c>
+      <c r="E64" t="s">
+        <v>161</v>
       </c>
       <c r="F64" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G64" t="s">
         <v>303</v>
@@ -3930,31 +4470,37 @@
       <c r="I64" t="s">
         <v>383</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
         <v>407</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>471</v>
       </c>
       <c r="P64" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
-      </c>
-      <c r="D65" t="s">
-        <v>157</v>
+        <v>80</v>
+      </c>
+      <c r="E65" t="s">
+        <v>162</v>
       </c>
       <c r="F65" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G65" t="s">
         <v>304</v>
@@ -3965,28 +4511,37 @@
       <c r="I65" t="s">
         <v>384</v>
       </c>
-      <c r="L65" t="s">
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
         <v>472</v>
       </c>
       <c r="P65" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D66" t="s">
-        <v>158</v>
+        <v>148</v>
+      </c>
+      <c r="E66" t="s">
+        <v>162</v>
       </c>
       <c r="F66" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G66" t="s">
         <v>305</v>
@@ -3997,28 +4552,37 @@
       <c r="I66" t="s">
         <v>385</v>
       </c>
-      <c r="L66" t="s">
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
         <v>473</v>
       </c>
       <c r="P66" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>149</v>
+      </c>
+      <c r="E67" t="s">
+        <v>162</v>
       </c>
       <c r="F67" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G67" t="s">
         <v>306</v>
@@ -4029,28 +4593,34 @@
       <c r="I67" t="s">
         <v>386</v>
       </c>
-      <c r="L67" t="s">
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
         <v>474</v>
       </c>
       <c r="P67" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" t="s">
-        <v>160</v>
+        <v>83</v>
+      </c>
+      <c r="E68" t="s">
+        <v>162</v>
       </c>
       <c r="F68" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G68" t="s">
         <v>307</v>
@@ -4061,28 +4631,37 @@
       <c r="I68" t="s">
         <v>387</v>
       </c>
-      <c r="L68" t="s">
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="s">
         <v>475</v>
       </c>
       <c r="P68" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>150</v>
+      </c>
+      <c r="E69" t="s">
+        <v>162</v>
       </c>
       <c r="F69" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G69" t="s">
         <v>308</v>
@@ -4093,28 +4672,37 @@
       <c r="I69" t="s">
         <v>388</v>
       </c>
-      <c r="L69" t="s">
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
         <v>476</v>
       </c>
       <c r="P69" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D70" t="s">
-        <v>161</v>
+        <v>150</v>
+      </c>
+      <c r="E70" t="s">
+        <v>162</v>
       </c>
       <c r="F70" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G70" t="s">
         <v>308</v>
@@ -4125,28 +4713,37 @@
       <c r="I70" t="s">
         <v>388</v>
       </c>
-      <c r="L70" t="s">
-        <v>476</v>
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>477</v>
       </c>
       <c r="P70" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D71" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" t="s">
         <v>162</v>
       </c>
       <c r="F71" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G71" t="s">
         <v>309</v>
@@ -4157,28 +4754,37 @@
       <c r="I71" t="s">
         <v>389</v>
       </c>
-      <c r="L71" t="s">
-        <v>477</v>
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
+        <v>478</v>
       </c>
       <c r="P71" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+        <v>490</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D72" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="E72" t="s">
+        <v>162</v>
       </c>
       <c r="F72" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="G72" t="s">
         <v>310</v>
@@ -4189,28 +4795,37 @@
       <c r="I72" t="s">
         <v>390</v>
       </c>
-      <c r="L72" t="s">
-        <v>478</v>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>479</v>
       </c>
       <c r="P72" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+        <v>489</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D73" t="s">
-        <v>164</v>
+        <v>153</v>
+      </c>
+      <c r="E73" t="s">
+        <v>162</v>
       </c>
       <c r="F73" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G73" t="s">
         <v>311</v>
@@ -4221,28 +4836,37 @@
       <c r="I73" t="s">
         <v>391</v>
       </c>
-      <c r="L73" t="s">
-        <v>479</v>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>480</v>
       </c>
       <c r="P73" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D74" t="s">
-        <v>165</v>
+        <v>154</v>
+      </c>
+      <c r="E74" t="s">
+        <v>162</v>
       </c>
       <c r="F74" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G74" t="s">
         <v>312</v>
@@ -4253,28 +4877,37 @@
       <c r="I74" t="s">
         <v>392</v>
       </c>
-      <c r="L74" t="s">
-        <v>480</v>
+      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="s">
+        <v>481</v>
       </c>
       <c r="P74" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D75" t="s">
-        <v>166</v>
+        <v>155</v>
+      </c>
+      <c r="E75" t="s">
+        <v>162</v>
       </c>
       <c r="F75" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G75" t="s">
         <v>313</v>
@@ -4285,28 +4918,37 @@
       <c r="I75" t="s">
         <v>393</v>
       </c>
-      <c r="L75" t="s">
-        <v>481</v>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="s">
+        <v>482</v>
       </c>
       <c r="P75" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
+        <v>490</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D76" t="s">
-        <v>167</v>
+        <v>156</v>
+      </c>
+      <c r="E76" t="s">
+        <v>162</v>
       </c>
       <c r="F76" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="G76" t="s">
         <v>314</v>
@@ -4317,28 +4959,37 @@
       <c r="I76" t="s">
         <v>394</v>
       </c>
-      <c r="L76" t="s">
-        <v>482</v>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
+        <v>483</v>
       </c>
       <c r="P76" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D77" t="s">
-        <v>168</v>
+        <v>157</v>
+      </c>
+      <c r="E77" t="s">
+        <v>162</v>
       </c>
       <c r="F77" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G77" t="s">
         <v>315</v>
@@ -4349,28 +5000,37 @@
       <c r="I77" t="s">
         <v>395</v>
       </c>
-      <c r="L77" t="s">
-        <v>483</v>
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
+        <v>484</v>
       </c>
       <c r="P77" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+        <v>490</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D78" t="s">
-        <v>169</v>
+        <v>158</v>
+      </c>
+      <c r="E78" t="s">
+        <v>162</v>
       </c>
       <c r="F78" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G78" t="s">
         <v>316</v>
@@ -4381,28 +5041,37 @@
       <c r="I78" t="s">
         <v>396</v>
       </c>
-      <c r="L78" t="s">
-        <v>484</v>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="s">
+        <v>485</v>
       </c>
       <c r="P78" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+        <v>490</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D79" t="s">
-        <v>170</v>
+        <v>159</v>
+      </c>
+      <c r="E79" t="s">
+        <v>162</v>
       </c>
       <c r="F79" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G79" t="s">
         <v>317</v>
@@ -4413,28 +5082,37 @@
       <c r="I79" t="s">
         <v>397</v>
       </c>
-      <c r="L79" t="s">
-        <v>485</v>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="s">
+        <v>486</v>
       </c>
       <c r="P79" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
+        <v>488</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D80" t="s">
-        <v>171</v>
+        <v>160</v>
+      </c>
+      <c r="E80" t="s">
+        <v>161</v>
       </c>
       <c r="F80" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G80" t="s">
         <v>318</v>
@@ -4445,14 +5123,20 @@
       <c r="I80" t="s">
         <v>398</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
         <v>408</v>
       </c>
-      <c r="L80" t="s">
-        <v>486</v>
+      <c r="M80" t="s">
+        <v>487</v>
       </c>
       <c r="P80" t="s">
-        <v>487</v>
+        <v>488</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
